--- a/dist/document/dest/2020/10/trieu.xlsx
+++ b/dist/document/dest/2020/10/trieu.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Trình dược viên: Trieu - xxx - xxx</v>
+        <v>Trình dược viên: Trieu - &lt;Điện thoại&gt; - &lt;Email&gt;</v>
       </c>
     </row>
     <row r="4">
@@ -791,7 +791,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Trình dược viên: Trieu - xxx - xxx</v>
+        <v>Trình dược viên: Trieu - &lt;Điện thoại&gt; - &lt;Email&gt;</v>
       </c>
     </row>
     <row r="4">

--- a/dist/document/dest/2020/10/trieu.xlsx
+++ b/dist/document/dest/2020/10/trieu.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,19 +425,19 @@
         <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>4429</v>
+        <v>390</v>
       </c>
       <c r="C5" s="1">
         <v>8000</v>
       </c>
       <c r="D5" s="1">
-        <v>35432000</v>
+        <v>3120000</v>
       </c>
       <c r="E5" s="1">
         <v>42</v>
       </c>
       <c r="F5" s="1">
-        <v>14881440</v>
+        <v>1310400</v>
       </c>
     </row>
     <row r="6">
@@ -465,19 +465,19 @@
         <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>6882</v>
+        <v>6822</v>
       </c>
       <c r="C7" s="1">
         <v>8900</v>
       </c>
       <c r="D7" s="1">
-        <v>61249800</v>
+        <v>60715800</v>
       </c>
       <c r="E7" s="1">
         <v>55</v>
       </c>
       <c r="F7" s="1">
-        <v>33687390</v>
+        <v>33393690</v>
       </c>
     </row>
     <row r="8">
@@ -582,198 +582,173 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Esofar (Esomeprazole 40mg)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B13" s="1">
-        <v>12862</v>
+        <v>2470</v>
       </c>
       <c r="C13" s="1">
-        <v>14000</v>
+        <v>14700</v>
       </c>
       <c r="D13" s="1">
-        <v>180068000</v>
+        <v>36309000</v>
       </c>
       <c r="E13" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1">
-        <v>93635360</v>
+        <v>19606860</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>2470</v>
+        <v>1620</v>
       </c>
       <c r="C14" s="1">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="D14" s="1">
-        <v>36309000</v>
+        <v>22680000</v>
       </c>
       <c r="E14" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1">
-        <v>19606860</v>
+        <v>12474000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>1620</v>
+        <v>1244</v>
       </c>
       <c r="C15" s="1">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="D15" s="1">
-        <v>22680000</v>
+        <v>7464000</v>
       </c>
       <c r="E15" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1">
-        <v>12474000</v>
+        <v>4030560</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Optipan (Diacerhein 50mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>1244</v>
+        <v>8352</v>
       </c>
       <c r="C16" s="1">
-        <v>6000</v>
+        <v>9900</v>
       </c>
       <c r="D16" s="1">
-        <v>7464000</v>
+        <v>82684800</v>
       </c>
       <c r="E16" s="1">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1">
-        <v>4030560</v>
+        <v>33073920</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+        <v>Originko (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>8352</v>
+        <v>3777</v>
       </c>
       <c r="C17" s="1">
-        <v>9900</v>
+        <v>8800</v>
       </c>
       <c r="D17" s="1">
-        <v>82684800</v>
+        <v>33237600</v>
       </c>
       <c r="E17" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1">
-        <v>33073920</v>
+        <v>12297912</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
       <c r="B18" s="1">
-        <v>3777</v>
+        <v>9517</v>
       </c>
       <c r="C18" s="1">
-        <v>8800</v>
+        <v>2900</v>
       </c>
       <c r="D18" s="1">
-        <v>33237600</v>
+        <v>27599300</v>
       </c>
       <c r="E18" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1">
-        <v>12297912</v>
+        <v>12419685</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Sanaperol (Rabeprazol 20mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>8377</v>
+        <v>3879</v>
       </c>
       <c r="C19" s="1">
-        <v>2900</v>
+        <v>7900</v>
       </c>
       <c r="D19" s="1">
-        <v>24293300</v>
+        <v>30644100</v>
       </c>
       <c r="E19" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F19" s="1">
-        <v>10931985</v>
+        <v>16854255</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>TỔNG</v>
       </c>
       <c r="B20" s="1">
-        <v>3879</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7900</v>
+        <v>58150</v>
       </c>
       <c r="D20" s="1">
-        <v>30644100</v>
-      </c>
-      <c r="E20" s="1">
-        <v>55</v>
+        <v>498859600</v>
       </c>
       <c r="F20" s="1">
-        <v>16854255</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>TỔNG</v>
-      </c>
-      <c r="B21" s="1">
-        <v>73971</v>
-      </c>
-      <c r="D21" s="1">
-        <v>708467600</v>
-      </c>
-      <c r="F21" s="1">
-        <v>357074752</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>File này được sinh ra bởi LamGift</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Powered by Lý Văn Khải - 0986 409 026 - roboticscm2018@gmail.com</v>
+        <v>251062352</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>File này được sinh ra bởi Yến Phạm</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F23"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -807,1105 +782,970 @@
         <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="D5" s="1">
-        <v>4429</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
-        <v>Lương Thanh</v>
+        <v>Nguyễn Tấn</v>
       </c>
       <c r="C6" t="str">
-        <v>Bửu</v>
+        <v>Dũng</v>
       </c>
       <c r="D6" s="1">
-        <v>4039</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="str">
-        <v>Nguyễn Tấn</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Dũng</v>
+      <c r="A7" t="str">
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="D7" s="1">
-        <v>390</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+      <c r="B8" t="str">
+        <v>Vũ Thị Thanh</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Huyền</v>
       </c>
       <c r="D8" s="1">
-        <v>1830</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
-        <v>Vũ Thị Thanh</v>
+        <v>Dương Quang Huỳnh</v>
       </c>
       <c r="C9" t="str">
-        <v>Huyền</v>
+        <v>Nga</v>
       </c>
       <c r="D9" s="1">
-        <v>840</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>Dương Quang Huỳnh</v>
+        <v>Võ Nguyễn Hương</v>
       </c>
       <c r="C10" t="str">
-        <v>Nga</v>
+        <v>Thảo</v>
       </c>
       <c r="D10" s="1">
-        <v>330</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="str">
-        <v>Võ Nguyễn Hương</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Thảo</v>
+      <c r="A11" t="str">
+        <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="D11" s="1">
-        <v>660</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+      <c r="B12" t="str">
+        <v>Lê Thị Thuý</v>
+      </c>
+      <c r="C12" t="str">
+        <v>An</v>
       </c>
       <c r="D12" s="1">
-        <v>6882</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="str">
-        <v>Lê Thị Thuý</v>
+        <v>Nguyễn Thị Hồng</v>
       </c>
       <c r="C13" t="str">
-        <v>An</v>
+        <v>Anh</v>
       </c>
       <c r="D13" s="1">
-        <v>128</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="str">
-        <v>Nguyễn Thị Hồng</v>
+        <v>Lương Thanh</v>
       </c>
       <c r="C14" t="str">
-        <v>Anh</v>
+        <v>Bửu</v>
       </c>
       <c r="D14" s="1">
-        <v>502</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <v>Lương Thanh</v>
+        <v>Nguyễn Tấn</v>
       </c>
       <c r="C15" t="str">
-        <v>Bửu</v>
+        <v>Dũng</v>
       </c>
       <c r="D15" s="1">
-        <v>160</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>Trần Thị</v>
+        <v>Nguyễn văn</v>
       </c>
       <c r="C16" t="str">
-        <v>Diễm</v>
+        <v>Hưng</v>
       </c>
       <c r="D16" s="1">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="str">
-        <v>Nguyễn Tấn</v>
+        <v>Vũ Thị Thanh</v>
       </c>
       <c r="C17" t="str">
-        <v>Dũng</v>
+        <v>Huyền</v>
       </c>
       <c r="D17" s="1">
-        <v>985</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="str">
-        <v>Nguyễn văn</v>
+        <v>Phùng Trọng</v>
       </c>
       <c r="C18" t="str">
-        <v>Hưng</v>
+        <v>Kiên</v>
       </c>
       <c r="D18" s="1">
-        <v>41</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>Vũ Thị Thanh</v>
+        <v>Mai Quang Vĩnh</v>
       </c>
       <c r="C19" t="str">
-        <v>Huyền</v>
+        <v>Long</v>
       </c>
       <c r="D19" s="1">
-        <v>370</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <v>Phùng Trọng</v>
+        <v>Võ Nguyễn Thành</v>
       </c>
       <c r="C20" t="str">
-        <v>Kiên</v>
+        <v>Nhân</v>
       </c>
       <c r="D20" s="1">
-        <v>570</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="str">
-        <v>Mai Quang Vĩnh</v>
+        <v>Nguyễn Đăng</v>
       </c>
       <c r="C21" t="str">
-        <v>Long</v>
+        <v>Sảng</v>
       </c>
       <c r="D21" s="1">
-        <v>766</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
-        <v>Võ Nguyễn Thành</v>
+        <v>Dương Phi</v>
       </c>
       <c r="C22" t="str">
-        <v>Nhân</v>
+        <v>Sơn</v>
       </c>
       <c r="D22" s="1">
-        <v>90</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="str">
-        <v>Nguyễn Đăng</v>
+        <v>Nguyễn Kim</v>
       </c>
       <c r="C23" t="str">
-        <v>Sảng</v>
+        <v>Thái</v>
       </c>
       <c r="D23" s="1">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="str">
-        <v>Dương Phi</v>
+        <v>Đặng Bữu</v>
       </c>
       <c r="C24" t="str">
-        <v>Sơn</v>
+        <v>Thất</v>
       </c>
       <c r="D24" s="1">
-        <v>337</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="str">
-        <v>Nguyễn Kim</v>
+        <v>Huỳnh Thắng</v>
       </c>
       <c r="C25" t="str">
-        <v>Thái</v>
+        <v>Toàn</v>
       </c>
       <c r="D25" s="1">
-        <v>120</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="str">
-        <v>Đặng Bữu</v>
+        <v>Lê Hữu Quỳnh</v>
       </c>
       <c r="C26" t="str">
-        <v>Thất</v>
+        <v>Trang</v>
       </c>
       <c r="D26" s="1">
-        <v>615</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="str">
-        <v>Huỳnh Thắng</v>
+        <v>Vũ Bích Đoan</v>
       </c>
       <c r="C27" t="str">
-        <v>Toàn</v>
+        <v>Trang</v>
       </c>
       <c r="D27" s="1">
-        <v>345</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="str">
-        <v>Lê Hữu Quỳnh</v>
+        <v>Nguyễn Tuấn</v>
       </c>
       <c r="C28" t="str">
-        <v>Trang</v>
+        <v>Vũ</v>
       </c>
       <c r="D28" s="1">
-        <v>45</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="str">
-        <v>Vũ Bích Đoan</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Trang</v>
+      <c r="A29" t="str">
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="D29" s="1">
-        <v>168</v>
+        <v>11777</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="str">
-        <v>Nguyễn Tuấn</v>
+        <v>Lê Thị Thuý</v>
       </c>
       <c r="C30" t="str">
-        <v>Vũ</v>
+        <v>An</v>
       </c>
       <c r="D30" s="1">
-        <v>1410</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+      <c r="B31" t="str">
+        <v>Nguyễn Thị Hồng</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Anh</v>
       </c>
       <c r="D31" s="1">
-        <v>11777</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="str">
-        <v>Lê Thị Thuý</v>
+        <v>Lương Thanh</v>
       </c>
       <c r="C32" t="str">
-        <v>An</v>
+        <v>Bửu</v>
       </c>
       <c r="D32" s="1">
-        <v>30</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="str">
-        <v>Nguyễn Thị Hồng</v>
+        <v>Nguyễn Tấn</v>
       </c>
       <c r="C33" t="str">
-        <v>Anh</v>
+        <v>Dũng</v>
       </c>
       <c r="D33" s="1">
-        <v>615</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="str">
-        <v>Lương Thanh</v>
+        <v>Nguyễn văn</v>
       </c>
       <c r="C34" t="str">
-        <v>Bửu</v>
+        <v>Hưng</v>
       </c>
       <c r="D34" s="1">
-        <v>2674</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="str">
-        <v>Nguyễn Tấn</v>
+        <v>Vũ Thị Thanh</v>
       </c>
       <c r="C35" t="str">
-        <v>Dũng</v>
+        <v>Huyền</v>
       </c>
       <c r="D35" s="1">
-        <v>30</v>
+        <v>635</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="str">
-        <v>Nguyễn văn</v>
+        <v>Phùng Trọng</v>
       </c>
       <c r="C36" t="str">
-        <v>Hưng</v>
+        <v>Kiên</v>
       </c>
       <c r="D36" s="1">
-        <v>177</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="str">
-        <v>Vũ Thị Thanh</v>
+        <v>Mai Quang Vĩnh</v>
       </c>
       <c r="C37" t="str">
-        <v>Huyền</v>
+        <v>Long</v>
       </c>
       <c r="D37" s="1">
-        <v>635</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="str">
-        <v>Phùng Trọng</v>
+        <v>Nguyễn Đăng</v>
       </c>
       <c r="C38" t="str">
-        <v>Kiên</v>
+        <v>Sảng</v>
       </c>
       <c r="D38" s="1">
-        <v>240</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="str">
-        <v>Mai Quang Vĩnh</v>
+        <v>Đặng Bữu</v>
       </c>
       <c r="C39" t="str">
-        <v>Long</v>
+        <v>Thất</v>
       </c>
       <c r="D39" s="1">
-        <v>1295</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="str">
-        <v>Nguyễn Đăng</v>
+        <v>Huỳnh Thắng</v>
       </c>
       <c r="C40" t="str">
-        <v>Sảng</v>
+        <v>Toàn</v>
       </c>
       <c r="D40" s="1">
-        <v>2442</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="str">
-        <v>Đặng Bữu</v>
+        <v>Lê Hữu Quỳnh</v>
       </c>
       <c r="C41" t="str">
-        <v>Thất</v>
+        <v>Trang</v>
       </c>
       <c r="D41" s="1">
-        <v>423</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="str">
-        <v>Huỳnh Thắng</v>
+        <v>Vũ Bích Đoan</v>
       </c>
       <c r="C42" t="str">
-        <v>Toàn</v>
+        <v>Trang</v>
       </c>
       <c r="D42" s="1">
-        <v>615</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="str">
-        <v>Lê Hữu Quỳnh</v>
+        <v>Nguyễn Tuấn</v>
       </c>
       <c r="C43" t="str">
-        <v>Trang</v>
+        <v>Vũ</v>
       </c>
       <c r="D43" s="1">
-        <v>103</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="str">
-        <v>Vũ Bích Đoan</v>
-      </c>
-      <c r="C44" t="str">
-        <v>Trang</v>
+      <c r="A44" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="D44" s="1">
-        <v>142</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="str">
-        <v>Nguyễn Tuấn</v>
+        <v>Vũ Thị Thanh</v>
       </c>
       <c r="C45" t="str">
-        <v>Vũ</v>
+        <v>Huyền</v>
       </c>
       <c r="D45" s="1">
-        <v>2356</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+      <c r="B46" t="str">
+        <v>Nguyễn Minh</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Thiền</v>
       </c>
       <c r="D46" s="1">
-        <v>1854</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="str">
-        <v>Vũ Thị Thanh</v>
+        <v>Nại Thị Hương</v>
       </c>
       <c r="C47" t="str">
-        <v>Huyền</v>
+        <v>Thoang</v>
       </c>
       <c r="D47" s="1">
-        <v>682</v>
+        <v>540</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="str">
-        <v>Nguyễn Minh</v>
+        <v>Đoàn Thị Thanh</v>
       </c>
       <c r="C48" t="str">
-        <v>Thiền</v>
+        <v>Vy</v>
       </c>
       <c r="D48" s="1">
-        <v>28</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="str">
-        <v>Nại Thị Hương</v>
-      </c>
-      <c r="C49" t="str">
-        <v>Thoang</v>
+      <c r="A49" t="str">
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="D49" s="1">
-        <v>540</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="str">
-        <v>Đoàn Thị Thanh</v>
+        <v>Trương Tuấn</v>
       </c>
       <c r="C50" t="str">
-        <v>Vy</v>
+        <v>Nhựt</v>
       </c>
       <c r="D50" s="1">
-        <v>604</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+      <c r="B51" t="str">
+        <v>Đinh Quyết</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Tâm</v>
       </c>
       <c r="D51" s="1">
-        <v>378</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="str">
-        <v>Trương Tuấn</v>
-      </c>
-      <c r="C52" t="str">
-        <v>Nhựt</v>
+      <c r="A52" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="D52" s="1">
-        <v>68</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="str">
-        <v>Đinh Quyết</v>
+        <v>Nguyễn Thy</v>
       </c>
       <c r="C53" t="str">
-        <v>Tâm</v>
+        <v>Khuê</v>
       </c>
       <c r="D53" s="1">
-        <v>310</v>
+        <v>654</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      <c r="B54" t="str">
+        <v>Phùng Trọng</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Kiên</v>
       </c>
       <c r="D54" s="1">
-        <v>4180</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="str">
-        <v>Nguyễn Thy</v>
+        <v>Dương Quang Huỳnh</v>
       </c>
       <c r="C55" t="str">
-        <v>Khuê</v>
+        <v>Nga</v>
       </c>
       <c r="D55" s="1">
-        <v>654</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="str">
-        <v>Phùng Trọng</v>
+        <v>Vũ Tu</v>
       </c>
       <c r="C56" t="str">
-        <v>Kiên</v>
+        <v>Thân</v>
       </c>
       <c r="D56" s="1">
-        <v>500</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="str">
-        <v>Dương Quang Huỳnh</v>
+        <v>Võ Nguyễn Hương</v>
       </c>
       <c r="C57" t="str">
-        <v>Nga</v>
+        <v>Thảo</v>
       </c>
       <c r="D57" s="1">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="str">
-        <v>Vũ Tu</v>
+        <v>Đoàn Thị Thanh</v>
       </c>
       <c r="C58" t="str">
-        <v>Thân</v>
+        <v>Vy</v>
       </c>
       <c r="D58" s="1">
-        <v>2260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="str">
-        <v>Võ Nguyễn Hương</v>
-      </c>
-      <c r="C59" t="str">
-        <v>Thảo</v>
+      <c r="A59" t="str">
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="D59" s="1">
-        <v>258</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="str">
-        <v>Đoàn Thị Thanh</v>
+        <v>Nguyễn Thị Ngọc</v>
       </c>
       <c r="C60" t="str">
-        <v>Vy</v>
+        <v>Trâm</v>
       </c>
       <c r="D60" s="1">
-        <v>238</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Chondrasil (Allopurinol 300mg)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="D61" s="1">
-        <v>60</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="str">
-        <v>Nguyễn Thị Ngọc</v>
+        <v>Trương Tuấn</v>
       </c>
       <c r="C62" t="str">
-        <v>Trâm</v>
+        <v>Nhựt</v>
       </c>
       <c r="D62" s="1">
-        <v>60</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
-        <v>Esofar (Esomeprazole 40mg)</v>
+      <c r="B63" t="str">
+        <v>Vũ Hồng</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Thịnh</v>
       </c>
       <c r="D63" s="1">
-        <v>12862</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="str">
-        <v>Nguyễn Thị Hồng</v>
-      </c>
-      <c r="C64" t="str">
-        <v>Anh</v>
+      <c r="A64" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="D64" s="1">
-        <v>205</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="str">
-        <v>Lương Thanh</v>
+        <v>Đặng Bữu</v>
       </c>
       <c r="C65" t="str">
-        <v>Bửu</v>
+        <v>Thất</v>
       </c>
       <c r="D65" s="1">
-        <v>4826</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="str">
-        <v>Trần Thị</v>
-      </c>
-      <c r="C66" t="str">
-        <v>Diễm</v>
+      <c r="A66" t="str">
+        <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="D66" s="1">
-        <v>354</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="str">
-        <v>Nguyễn Tấn</v>
+        <v>Nguyễn Thị Kim</v>
       </c>
       <c r="C67" t="str">
-        <v>Dũng</v>
+        <v>Hường</v>
       </c>
       <c r="D67" s="1">
-        <v>540</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="str">
-        <v>Phùng Trọng</v>
+        <v>Nguyễn Thi</v>
       </c>
       <c r="C68" t="str">
-        <v>Kiên</v>
+        <v>Phú</v>
       </c>
       <c r="D68" s="1">
-        <v>660</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="str">
-        <v>Mai Quang Vĩnh</v>
-      </c>
-      <c r="C69" t="str">
-        <v>Long</v>
+      <c r="A69" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
       </c>
       <c r="D69" s="1">
-        <v>216</v>
+        <v>8352</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="str">
-        <v>Nguyễn Thi</v>
+        <v>Nguyễn Thị Hồng</v>
       </c>
       <c r="C70" t="str">
-        <v>Phú</v>
+        <v>Anh</v>
       </c>
       <c r="D70" s="1">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="str">
-        <v>Nguyễn Đăng</v>
+        <v>Lương Thanh</v>
       </c>
       <c r="C71" t="str">
-        <v>Sảng</v>
+        <v>Bửu</v>
       </c>
       <c r="D71" s="1">
-        <v>562</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="str">
-        <v>Lê Đình</v>
+        <v>Đoàn Thị Ngọc</v>
       </c>
       <c r="C72" t="str">
-        <v>Tín</v>
+        <v>Đào</v>
       </c>
       <c r="D72" s="1">
-        <v>1631</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="str">
-        <v>Nguyễn Tuấn</v>
+        <v>Nguyễn Thị Kim</v>
       </c>
       <c r="C73" t="str">
-        <v>Vũ</v>
+        <v>Hường</v>
       </c>
       <c r="D73" s="1">
-        <v>3846</v>
+        <v>637</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+      <c r="B74" t="str">
+        <v>Vũ Thị Thanh</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Huyền</v>
       </c>
       <c r="D74" s="1">
-        <v>2470</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="str">
-        <v>Trương Tuấn</v>
+        <v>Phùng Trọng</v>
       </c>
       <c r="C75" t="str">
-        <v>Nhựt</v>
+        <v>Kiên</v>
       </c>
       <c r="D75" s="1">
-        <v>2106</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="str">
-        <v>Vũ Hồng</v>
+        <v>Đặng Bữu</v>
       </c>
       <c r="C76" t="str">
-        <v>Thịnh</v>
+        <v>Thất</v>
       </c>
       <c r="D76" s="1">
-        <v>364</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Originko (Ginkgo biloba 80mg)</v>
       </c>
       <c r="D77" s="1">
-        <v>1620</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="str">
-        <v>Đặng Bữu</v>
+        <v>Lê Thị Thuý</v>
       </c>
       <c r="C78" t="str">
-        <v>Thất</v>
+        <v>An</v>
       </c>
       <c r="D78" s="1">
-        <v>1620</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
+      <c r="B79" t="str">
+        <v>Bùi Thị Vân</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Hương</v>
       </c>
       <c r="D79" s="1">
-        <v>1244</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="str">
-        <v>Nguyễn Thị Kim</v>
+        <v>Nguyễn Tuấn</v>
       </c>
       <c r="C80" t="str">
-        <v>Hường</v>
+        <v>Vũ</v>
       </c>
       <c r="D80" s="1">
-        <v>180</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="str">
-        <v>Nguyễn Thi</v>
-      </c>
-      <c r="C81" t="str">
-        <v>Phú</v>
+      <c r="A81" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
       <c r="D81" s="1">
-        <v>1064</v>
+        <v>9517</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+      <c r="B82" t="str">
+        <v>Nguyễn Thy</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Anh</v>
       </c>
       <c r="D82" s="1">
-        <v>8352</v>
+        <v>588</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="str">
-        <v>Nguyễn Thị Hồng</v>
+        <v>Nguyễn Tấn</v>
       </c>
       <c r="C83" t="str">
-        <v>Anh</v>
+        <v>Dũng</v>
       </c>
       <c r="D83" s="1">
-        <v>120</v>
+        <v>520</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="str">
-        <v>Lương Thanh</v>
+        <v>Nguyễn văn</v>
       </c>
       <c r="C84" t="str">
-        <v>Bửu</v>
+        <v>Hưng</v>
       </c>
       <c r="D84" s="1">
-        <v>3525</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="str">
-        <v>Đoàn Thị Ngọc</v>
+        <v>Nguyễn Thị Kim</v>
       </c>
       <c r="C85" t="str">
-        <v>Đào</v>
+        <v>Hường</v>
       </c>
       <c r="D85" s="1">
-        <v>1035</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="str">
-        <v>Nguyễn Thị Kim</v>
+        <v>Nguyễn Thy</v>
       </c>
       <c r="C86" t="str">
-        <v>Hường</v>
+        <v>Khuê</v>
       </c>
       <c r="D86" s="1">
-        <v>637</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="str">
-        <v>Vũ Thị Thanh</v>
+        <v>Lê Đình Vĩnh</v>
       </c>
       <c r="C87" t="str">
-        <v>Huyền</v>
+        <v>Phúc</v>
       </c>
       <c r="D87" s="1">
-        <v>1130</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="str">
-        <v>Phùng Trọng</v>
+        <v>Vũ Tu</v>
       </c>
       <c r="C88" t="str">
-        <v>Kiên</v>
+        <v>Thân</v>
       </c>
       <c r="D88" s="1">
-        <v>665</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="str">
-        <v>Đặng Bữu</v>
+        <v>Nguyễn Thị Ngọc</v>
       </c>
       <c r="C89" t="str">
-        <v>Thất</v>
+        <v>Trâm</v>
       </c>
       <c r="D89" s="1">
-        <v>1240</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
+      <c r="B90" t="str">
+        <v>Nguyễn Tuấn</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Vũ</v>
       </c>
       <c r="D90" s="1">
-        <v>3777</v>
+        <v>808</v>
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="str">
-        <v>Lê Thị Thuý</v>
-      </c>
-      <c r="C91" t="str">
-        <v>An</v>
+      <c r="A91" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
       </c>
       <c r="D91" s="1">
-        <v>150</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="str">
-        <v>Bùi Thị Vân</v>
+        <v>Nguyễn Tuấn</v>
       </c>
       <c r="C92" t="str">
-        <v>Hương</v>
+        <v>Vũ</v>
       </c>
       <c r="D92" s="1">
-        <v>2519</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="str">
-        <v>Nguyễn Tuấn</v>
+        <v>Đoàn Thị Thanh</v>
       </c>
       <c r="C93" t="str">
-        <v>Vũ</v>
+        <v>Vy</v>
       </c>
       <c r="D93" s="1">
-        <v>1108</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>TỔNG CỘNG</v>
       </c>
       <c r="D94" s="1">
-        <v>8377</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" t="str">
-        <v>Nguyễn Thy</v>
-      </c>
-      <c r="C95" t="str">
-        <v>Anh</v>
-      </c>
-      <c r="D95" s="1">
-        <v>588</v>
+        <v>58150</v>
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="str">
-        <v>Nguyễn Tấn</v>
-      </c>
-      <c r="C96" t="str">
-        <v>Dũng</v>
-      </c>
-      <c r="D96" s="1">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" t="str">
-        <v>Nguyễn văn</v>
-      </c>
-      <c r="C97" t="str">
-        <v>Hưng</v>
-      </c>
-      <c r="D97" s="1">
-        <v>2782</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" t="str">
-        <v>Nguyễn Thị Kim</v>
-      </c>
-      <c r="C98" t="str">
-        <v>Hường</v>
-      </c>
-      <c r="D98" s="1">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" t="str">
-        <v>Nguyễn Thy</v>
-      </c>
-      <c r="C99" t="str">
-        <v>Khuê</v>
-      </c>
-      <c r="D99" s="1">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" t="str">
-        <v>Vũ Tu</v>
-      </c>
-      <c r="C100" t="str">
-        <v>Thân</v>
-      </c>
-      <c r="D100" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" t="str">
-        <v>Nguyễn Thị Ngọc</v>
-      </c>
-      <c r="C101" t="str">
-        <v>Trâm</v>
-      </c>
-      <c r="D101" s="1">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" t="str">
-        <v>Nguyễn Tuấn</v>
-      </c>
-      <c r="C102" t="str">
-        <v>Vũ</v>
-      </c>
-      <c r="D102" s="1">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
-      </c>
-      <c r="D103" s="1">
-        <v>3879</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" t="str">
-        <v>Nguyễn Tuấn</v>
-      </c>
-      <c r="C104" t="str">
-        <v>Vũ</v>
-      </c>
-      <c r="D104" s="1">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" t="str">
-        <v>Đoàn Thị Thanh</v>
-      </c>
-      <c r="C105" t="str">
-        <v>Vy</v>
-      </c>
-      <c r="D105" s="1">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>TỔNG CỘNG</v>
-      </c>
-      <c r="D106" s="1">
-        <v>73971</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>File này được sinh ra bởi LamGift</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>Powered by Lý Văn Khải - 0986 409 026 - roboticscm2018@gmail.com</v>
+      <c r="A96" t="str">
+        <v>File này được sinh ra bởi Yến Phạm</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A69:C69"/>
     <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A91:C91"/>
     <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A106:C106"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D109"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D96"/>
   </ignoredErrors>
 </worksheet>
 </file>